--- a/CBi_urb.xlsx
+++ b/CBi_urb.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCellId="1" sqref="C1:E13 A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
